--- a/inventario-pruebas-exploratorias.xlsx
+++ b/inventario-pruebas-exploratorias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MiSo\pruebas-automatizadas-software\semana8\testing-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14191610-1111-402B-9148-1908C7984FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA005AF-2842-464B-B085-0946983404FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Lists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$105</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="247">
   <si>
     <t>PRUEBAS EXPLORATORIAS</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Versión/Hash commit</t>
-  </si>
-  <si>
-    <t>Version 4.42.0 /  2fdf8fd4b6c3f6d094d48df137dcb7a40f797b61</t>
   </si>
   <si>
     <t>Ambiente de pruebas</t>
@@ -195,10 +192,6 @@
     <t>Reintento de edición tras edición inválida</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/1
-https://github.com/miso-alejosaur/ghost-issues/issues/2</t>
-  </si>
-  <si>
     <t>EP_013</t>
   </si>
   <si>
@@ -232,18 +225,12 @@
     <t>Eliminación de tag interno</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/3</t>
-  </si>
-  <si>
     <t>EP_018</t>
   </si>
   <si>
     <t>Eliminación de tag modificando nombre</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/4</t>
-  </si>
-  <si>
     <t>EP_019</t>
   </si>
   <si>
@@ -253,9 +240,6 @@
     <t>Creación de miembro con nombre y correo</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/5</t>
-  </si>
-  <si>
     <t>EP_020</t>
   </si>
   <si>
@@ -274,9 +258,6 @@
     <t>Creación de miembro con correo invalido</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/6</t>
-  </si>
-  <si>
     <t>EP_023</t>
   </si>
   <si>
@@ -301,9 +282,6 @@
     <t>EP_026</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/7</t>
-  </si>
-  <si>
     <t>EP_027</t>
   </si>
   <si>
@@ -334,18 +312,12 @@
     <t>Eliminación de miembro</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/8</t>
-  </si>
-  <si>
     <t>EP_031</t>
   </si>
   <si>
     <t>Eliminación de miembro borrando correo</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/9</t>
-  </si>
-  <si>
     <t>EP_033</t>
   </si>
   <si>
@@ -358,9 +330,6 @@
     <t>Listar todos los post existentes</t>
   </si>
   <si>
-    <t>EP_033.mp4</t>
-  </si>
-  <si>
     <t>EP_034</t>
   </si>
   <si>
@@ -370,18 +339,12 @@
     <t>Listar todos los post con estado sheduled</t>
   </si>
   <si>
-    <t>EP_034.mp4</t>
-  </si>
-  <si>
     <t>EP_035</t>
   </si>
   <si>
     <t>LIstar todos los post con estado en drafts</t>
   </si>
   <si>
-    <t>EP_035.mp4</t>
-  </si>
-  <si>
     <t>EP_036</t>
   </si>
   <si>
@@ -391,39 +354,24 @@
     <t>creacion de post con todos los datos</t>
   </si>
   <si>
-    <t>EP_036.mp4</t>
-  </si>
-  <si>
     <t>EP_037</t>
   </si>
   <si>
     <t>creacion de post sin titulo</t>
   </si>
   <si>
-    <t>EP_037.mp4</t>
-  </si>
-  <si>
     <t>EP_038</t>
   </si>
   <si>
     <t>creacion de post sin contenido</t>
   </si>
   <si>
-    <t>EP_038.mp4</t>
-  </si>
-  <si>
     <t>EP_039</t>
   </si>
   <si>
     <t>creacion de post sin titulo y contenido</t>
   </si>
   <si>
-    <t>EP_039.mp4</t>
-  </si>
-  <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/16</t>
-  </si>
-  <si>
     <t>EP_040</t>
   </si>
   <si>
@@ -433,18 +381,12 @@
     <t>creacion de post shedule</t>
   </si>
   <si>
-    <t>EP_040.mp4</t>
-  </si>
-  <si>
     <t>EP_041</t>
   </si>
   <si>
     <t>creacion de post drafts</t>
   </si>
   <si>
-    <t>EP_041.mp4</t>
-  </si>
-  <si>
     <t>EP_042</t>
   </si>
   <si>
@@ -454,57 +396,36 @@
     <t>editar post con todos los campos</t>
   </si>
   <si>
-    <t>EP_042.mp4</t>
-  </si>
-  <si>
     <t>EP_043</t>
   </si>
   <si>
     <t>editar post sin titulo</t>
   </si>
   <si>
-    <t>EP_043.mp4</t>
-  </si>
-  <si>
     <t>EP_044</t>
   </si>
   <si>
     <t>editar post sin contenido</t>
   </si>
   <si>
-    <t>EP_044.mp4</t>
-  </si>
-  <si>
     <t>EP_045</t>
   </si>
   <si>
     <t>editar post sin contenido y titulo</t>
   </si>
   <si>
-    <t>EP_045.mp4</t>
-  </si>
-  <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/17</t>
-  </si>
-  <si>
     <t>EP_046</t>
   </si>
   <si>
     <t>editar post despublicar</t>
   </si>
   <si>
-    <t>EP_046.mp4</t>
-  </si>
-  <si>
     <t>EP_047</t>
   </si>
   <si>
     <t>editar post con shedule</t>
   </si>
   <si>
-    <t>EP_047.mp4</t>
-  </si>
-  <si>
     <t>EP_048</t>
   </si>
   <si>
@@ -514,27 +435,18 @@
     <t xml:space="preserve">eliminar post </t>
   </si>
   <si>
-    <t>EP_048.mp4</t>
-  </si>
-  <si>
     <t>EP_049</t>
   </si>
   <si>
     <t>eliminar post drafts</t>
   </si>
   <si>
-    <t>EP_049.mp4</t>
-  </si>
-  <si>
     <t>EP_050</t>
   </si>
   <si>
     <t>eliminar post shedule</t>
   </si>
   <si>
-    <t>EP_050.mp4</t>
-  </si>
-  <si>
     <t>EP_051</t>
   </si>
   <si>
@@ -544,42 +456,24 @@
     <t>previsualizar vista computador</t>
   </si>
   <si>
-    <t>EP_051.mp4</t>
-  </si>
-  <si>
     <t>EP_052</t>
   </si>
   <si>
     <t>previsualizar vista celular</t>
   </si>
   <si>
-    <t>EP_052.mp4</t>
-  </si>
-  <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/14</t>
-  </si>
-  <si>
     <t>EP_053</t>
   </si>
   <si>
     <t>previsualizar vista correo</t>
   </si>
   <si>
-    <t>EP_053.mp4</t>
-  </si>
-  <si>
     <t>EP_054</t>
   </si>
   <si>
     <t>previsualizar vista twiter</t>
   </si>
   <si>
-    <t>EP_054.mp4</t>
-  </si>
-  <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/15</t>
-  </si>
-  <si>
     <t>EP_055</t>
   </si>
   <si>
@@ -628,9 +522,6 @@
     <t>Modificación de  correo por invalido</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/10</t>
-  </si>
-  <si>
     <t>EP_062</t>
   </si>
   <si>
@@ -673,9 +564,6 @@
     <t>Modificación de  contraseña (antigua incorrecta)</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/11</t>
-  </si>
-  <si>
     <t>EP_069</t>
   </si>
   <si>
@@ -715,9 +603,6 @@
     <t>Creación de página con contenido especial</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/12</t>
-  </si>
-  <si>
     <t>EP_075</t>
   </si>
   <si>
@@ -748,9 +633,6 @@
     <t>Publicación de página vacía</t>
   </si>
   <si>
-    <t>https://github.com/miso-alejosaur/ghost-issues/issues/13</t>
-  </si>
-  <si>
     <t>EP_080</t>
   </si>
   <si>
@@ -760,81 +642,54 @@
     <t>Editar página con todos los campos</t>
   </si>
   <si>
-    <t>EP_080.mp4</t>
-  </si>
-  <si>
     <t>EP_081</t>
   </si>
   <si>
     <t>Editar página sin título</t>
   </si>
   <si>
-    <t>EP_081.mp4</t>
-  </si>
-  <si>
     <t>EP_082</t>
   </si>
   <si>
     <t>Editar página sin contenido</t>
   </si>
   <si>
-    <t>EP_082.mp4</t>
-  </si>
-  <si>
     <t>EP_083</t>
   </si>
   <si>
     <t>Editar página con contenido especial</t>
   </si>
   <si>
-    <t>EP_083.mp4</t>
-  </si>
-  <si>
     <t>EP_084</t>
   </si>
   <si>
     <t>Editar página con tag</t>
   </si>
   <si>
-    <t>EP_084.mp4</t>
-  </si>
-  <si>
     <t>EP_085</t>
   </si>
   <si>
     <t>Editar página con tag inexistente</t>
   </si>
   <si>
-    <t>EP_085.mp4</t>
-  </si>
-  <si>
     <t>EP_086</t>
   </si>
   <si>
     <t>Editar página sin autor</t>
   </si>
   <si>
-    <t>EP_086.mp4</t>
-  </si>
-  <si>
     <t>EP_087</t>
   </si>
   <si>
     <t>Editar página - Publicación de página</t>
   </si>
   <si>
-    <t>EP_087.mp4</t>
-  </si>
-  <si>
     <t>EP_088</t>
   </si>
   <si>
     <t>Editar página - Publicación de página vacía</t>
   </si>
   <si>
-    <t>EP_088.mp4</t>
-  </si>
-  <si>
     <t>https://github.com/miso-alejosaur/ghost-issues/issues/18</t>
   </si>
   <si>
@@ -847,27 +702,18 @@
     <t>eliminar página</t>
   </si>
   <si>
-    <t>EP_089.mp4</t>
-  </si>
-  <si>
     <t>EP_090</t>
   </si>
   <si>
     <t>eliminar página - drafts</t>
   </si>
   <si>
-    <t>EP_090.mp4</t>
-  </si>
-  <si>
     <t>EP_091</t>
   </si>
   <si>
     <t>eliminar página - shedule</t>
   </si>
   <si>
-    <t>EP_091.mp4</t>
-  </si>
-  <si>
     <t>EP_092</t>
   </si>
   <si>
@@ -877,9 +723,6 @@
     <t>LIstar Tags - publicos</t>
   </si>
   <si>
-    <t>EP_92_93.mp4</t>
-  </si>
-  <si>
     <t>EP_093</t>
   </si>
   <si>
@@ -896,6 +739,55 @@
   </si>
   <si>
     <t>Tipo de escenario</t>
+  </si>
+  <si>
+    <t>Version 4.44.0 /  c2d739a25c4abcb757a9ce5510fe8f1dc2990da7</t>
+  </si>
+  <si>
+    <t>EP_92_93</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/1
+https://github.com/miso-alejosaur/testing-final/issues/2</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/3</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/4</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/5</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/6</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/7</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/8</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/10</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/11</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/12</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/13</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/14</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/15</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1002,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1177,6 +1069,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,7 +1093,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,13 +1133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1923676</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>373530</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>279455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1538,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J105"/>
+  <dimension ref="B1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="68" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1462,7 @@
     <col min="7" max="7" width="23.625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="50.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="52.5" style="4" customWidth="1"/>
     <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
@@ -1571,17 +1478,17 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -1598,46 +1505,46 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="C5" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="2:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1651,2732 +1558,2761 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>44653</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I12" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I16" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="I17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I18" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I19" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I20" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>44653</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
         <v>44653</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1">
         <v>44653</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1">
-        <v>44653</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="I25" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1">
         <v>44653</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>61</v>
+      <c r="J26" s="24" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1">
         <v>44653</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1">
         <v>44653</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1">
         <v>44653</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>44653</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>44653</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1">
         <v>44653</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1">
         <v>44653</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1">
         <v>44653</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1">
         <v>44653</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>84</v>
+      <c r="J35" s="24" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1">
         <v>44653</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1">
         <v>44653</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1">
         <v>44653</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1">
         <v>44653</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1">
         <v>44653</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>44653</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1">
         <v>44653</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1">
         <v>44653</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1">
         <v>44653</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1">
         <v>44653</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1">
         <v>44653</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1">
         <v>44653</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>124</v>
+        <v>106</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1">
         <v>44653</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1">
         <v>44653</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1">
         <v>44653</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1">
         <v>44653</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1">
         <v>44653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1">
         <v>44653</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>145</v>
+        <v>120</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1">
         <v>44653</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1">
         <v>44653</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1">
         <v>44653</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1">
         <v>44653</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1">
         <v>44653</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1">
         <v>44653</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C60" s="1">
         <v>44653</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>169</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J60" s="23"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1">
         <v>44653</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1">
         <v>44653</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>176</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1">
         <v>44653</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C64" s="1">
         <v>44653</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1">
         <v>44653</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1">
         <v>44653</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C67" s="1">
         <v>44653</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1">
         <v>44653</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1">
         <v>44653</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="J69" s="21" t="s">
-        <v>193</v>
+        <v>156</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C70" s="1">
         <v>44653</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1">
         <v>44653</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C72" s="1">
         <v>44653</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C73" s="1">
         <v>44653</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C74" s="1">
         <v>44653</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C75" s="1">
         <v>44653</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C76" s="1">
         <v>44653</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="J76" s="21" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="J76" s="35" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="C77" s="1">
         <v>44653</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="C78" s="1">
         <v>44653</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C79" s="1">
         <v>44653</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C80" s="1">
         <v>44653</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1">
         <v>44653</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C82" s="1">
         <v>44653</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="J82" s="21" t="s">
-        <v>222</v>
+        <v>183</v>
+      </c>
+      <c r="J82" s="35" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C83" s="1">
         <v>44653</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C84" s="1">
         <v>44653</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C85" s="1">
         <v>44653</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C86" s="1">
         <v>44653</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C87" s="1">
         <v>44653</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="J87" s="21" t="s">
-        <v>233</v>
+        <v>193</v>
+      </c>
+      <c r="J87" s="35" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C88" s="1">
         <v>44654</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="I88" s="21" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1">
         <v>44654</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="C90" s="1">
         <v>44654</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="C91" s="1">
         <v>44654</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="I91" s="21" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="C92" s="1">
         <v>44654</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C93" s="1">
         <v>44654</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C94" s="1">
         <v>44654</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C95" s="1">
         <v>44654</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C96" s="1">
         <v>44654</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="C97" s="1">
         <v>44654</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1">
         <v>44654</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1">
         <v>44654</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="C100" s="1">
         <v>44654</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="C101" s="1">
         <v>44654</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="32"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="32"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="32"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="32"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B105:J105"/>
+    <mergeCell ref="B108:J108"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -4384,28 +4320,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I42" r:id="rId1" xr:uid="{BD006CBD-3051-4C9E-A6A1-E3BA8C9FF184}"/>
-    <hyperlink ref="I41" r:id="rId2" xr:uid="{7869AAE2-C25E-4DA8-A2B4-FFA99BAF2CA6}"/>
-    <hyperlink ref="I62" r:id="rId3" xr:uid="{0EACAE09-F118-4BC9-B821-BF8E86260AFB}"/>
-    <hyperlink ref="I61" r:id="rId4" xr:uid="{10367184-DFCA-465C-A3F6-B18EC84BB0A3}"/>
-    <hyperlink ref="I60" r:id="rId5" xr:uid="{A9EC25A8-2E2C-4303-9C9F-ED77B0AE8EE7}"/>
-    <hyperlink ref="I59" r:id="rId6" xr:uid="{4FD051B7-30CC-4FB5-BCAE-792D94CBF924}"/>
-    <hyperlink ref="I58" r:id="rId7" xr:uid="{3B983B14-F72C-4574-ABFF-05283A9A1AA0}"/>
-    <hyperlink ref="I57" r:id="rId8" xr:uid="{5B02CFF1-E9C7-4DBF-B3FF-1309CAA272B3}"/>
-    <hyperlink ref="I56" r:id="rId9" xr:uid="{B9279369-94CC-480D-84C3-90929EAE10CC}"/>
-    <hyperlink ref="I55" r:id="rId10" xr:uid="{CBBF8DC5-99FD-4656-B1A5-4BEE5D12B07D}"/>
-    <hyperlink ref="I54" r:id="rId11" xr:uid="{B45D440C-285C-4F69-A331-9916AD023A8B}"/>
-    <hyperlink ref="I53" r:id="rId12" xr:uid="{5496930A-1570-4EAE-BC7C-2003C15B3B51}"/>
-    <hyperlink ref="I52" r:id="rId13" xr:uid="{753145DF-1F2D-46D1-8545-785270C3FC0B}"/>
-    <hyperlink ref="I51" r:id="rId14" xr:uid="{0BFFFE9A-7EA8-4269-A115-47C8417531BF}"/>
-    <hyperlink ref="I50" r:id="rId15" xr:uid="{05941E83-0F40-4A83-8C2E-169949B1C4DF}"/>
-    <hyperlink ref="I49" r:id="rId16" xr:uid="{3F9362EB-2601-4735-AC12-C326EEDE3B03}"/>
-    <hyperlink ref="I48" r:id="rId17" xr:uid="{590CE74B-1B93-4AFA-8E36-83496267E7BC}"/>
-    <hyperlink ref="I47" r:id="rId18" xr:uid="{9E22DABA-EAAF-405F-B2C4-06509D2AEB15}"/>
-    <hyperlink ref="I46" r:id="rId19" xr:uid="{A132C98D-73A0-464F-B758-91F75553EFCE}"/>
-    <hyperlink ref="I45" r:id="rId20" xr:uid="{C5DEBA5A-524C-44BA-8CD5-DF8D5C53D3F5}"/>
-    <hyperlink ref="I44" r:id="rId21" xr:uid="{46D92058-1DD3-40DC-94CA-17318FF88B8C}"/>
-    <hyperlink ref="I43" r:id="rId22" xr:uid="{88BDCB1B-CAB9-4679-8219-31DEDC5A4897}"/>
+    <hyperlink ref="I42" r:id="rId1" display="EP_034.mp4" xr:uid="{BD006CBD-3051-4C9E-A6A1-E3BA8C9FF184}"/>
+    <hyperlink ref="I41" r:id="rId2" display="EP_033.mp4" xr:uid="{7869AAE2-C25E-4DA8-A2B4-FFA99BAF2CA6}"/>
+    <hyperlink ref="I62" r:id="rId3" display="EP_054.mp4" xr:uid="{0EACAE09-F118-4BC9-B821-BF8E86260AFB}"/>
+    <hyperlink ref="I61" r:id="rId4" display="EP_053.mp4" xr:uid="{10367184-DFCA-465C-A3F6-B18EC84BB0A3}"/>
+    <hyperlink ref="I60" r:id="rId5" display="EP_052.mp4" xr:uid="{A9EC25A8-2E2C-4303-9C9F-ED77B0AE8EE7}"/>
+    <hyperlink ref="I59" r:id="rId6" display="EP_051.mp4" xr:uid="{4FD051B7-30CC-4FB5-BCAE-792D94CBF924}"/>
+    <hyperlink ref="I58" r:id="rId7" display="EP_050.mp4" xr:uid="{3B983B14-F72C-4574-ABFF-05283A9A1AA0}"/>
+    <hyperlink ref="I57" r:id="rId8" display="EP_049.mp4" xr:uid="{5B02CFF1-E9C7-4DBF-B3FF-1309CAA272B3}"/>
+    <hyperlink ref="I56" r:id="rId9" display="EP_048.mp4" xr:uid="{B9279369-94CC-480D-84C3-90929EAE10CC}"/>
+    <hyperlink ref="I55" r:id="rId10" display="EP_047.mp4" xr:uid="{CBBF8DC5-99FD-4656-B1A5-4BEE5D12B07D}"/>
+    <hyperlink ref="I54" r:id="rId11" display="EP_046.mp4" xr:uid="{B45D440C-285C-4F69-A331-9916AD023A8B}"/>
+    <hyperlink ref="I53" r:id="rId12" display="EP_045.mp4" xr:uid="{5496930A-1570-4EAE-BC7C-2003C15B3B51}"/>
+    <hyperlink ref="I52" r:id="rId13" display="EP_044.mp4" xr:uid="{753145DF-1F2D-46D1-8545-785270C3FC0B}"/>
+    <hyperlink ref="I51" r:id="rId14" display="EP_043.mp4" xr:uid="{0BFFFE9A-7EA8-4269-A115-47C8417531BF}"/>
+    <hyperlink ref="I50" r:id="rId15" display="EP_042.mp4" xr:uid="{05941E83-0F40-4A83-8C2E-169949B1C4DF}"/>
+    <hyperlink ref="I49" r:id="rId16" display="EP_041.mp4" xr:uid="{3F9362EB-2601-4735-AC12-C326EEDE3B03}"/>
+    <hyperlink ref="I48" r:id="rId17" display="EP_040.mp4" xr:uid="{590CE74B-1B93-4AFA-8E36-83496267E7BC}"/>
+    <hyperlink ref="I47" r:id="rId18" display="EP_039.mp4" xr:uid="{9E22DABA-EAAF-405F-B2C4-06509D2AEB15}"/>
+    <hyperlink ref="I46" r:id="rId19" display="EP_038.mp4" xr:uid="{A132C98D-73A0-464F-B758-91F75553EFCE}"/>
+    <hyperlink ref="I45" r:id="rId20" display="EP_037.mp4" xr:uid="{C5DEBA5A-524C-44BA-8CD5-DF8D5C53D3F5}"/>
+    <hyperlink ref="I44" r:id="rId21" display="EP_036.mp4" xr:uid="{46D92058-1DD3-40DC-94CA-17318FF88B8C}"/>
+    <hyperlink ref="I43" r:id="rId22" display="EP_035.mp4" xr:uid="{88BDCB1B-CAB9-4679-8219-31DEDC5A4897}"/>
     <hyperlink ref="I10" r:id="rId23" xr:uid="{B241C71D-EDCC-465D-A1D3-9C96130EDFC3}"/>
     <hyperlink ref="I11" r:id="rId24" xr:uid="{7C5DE2E7-7570-4B69-9BCC-55BF06C3AE27}"/>
     <hyperlink ref="I12" r:id="rId25" xr:uid="{DF5F6D78-E99D-4861-87B8-0AC7DF71F669}"/>
@@ -4465,39 +4401,37 @@
     <hyperlink ref="I16" r:id="rId79" xr:uid="{5883711D-D1BB-4D2C-A9CA-CEC542263872}"/>
     <hyperlink ref="I15" r:id="rId80" xr:uid="{AB609A9E-2762-4574-82A6-4E5C394BA2D7}"/>
     <hyperlink ref="J27" r:id="rId81" xr:uid="{1ABCE5C7-2196-4D6E-88D9-3E6290EB9507}"/>
-    <hyperlink ref="J28" r:id="rId82" xr:uid="{CF8C4FCF-92AA-4B21-A281-5955EABA3D9F}"/>
-    <hyperlink ref="J29" r:id="rId83" xr:uid="{681D671E-446D-464D-8999-FA3B18DBA3A7}"/>
-    <hyperlink ref="I88" r:id="rId84" xr:uid="{63F11F14-2B9F-46E3-B51C-AFF658807762}"/>
-    <hyperlink ref="I89" r:id="rId85" xr:uid="{814B3263-418A-451F-BAA2-B124CF925B41}"/>
-    <hyperlink ref="I90" r:id="rId86" xr:uid="{659BA1C4-6F34-4596-BC18-314CA7C3BCDB}"/>
-    <hyperlink ref="I91" r:id="rId87" xr:uid="{0C546A65-897F-4B3C-8594-5E255E676994}"/>
-    <hyperlink ref="I92" r:id="rId88" xr:uid="{FFCD8A75-066E-4591-829C-F81BA9C4DAE2}"/>
-    <hyperlink ref="I93" r:id="rId89" xr:uid="{890C34FA-2F60-46DB-81F8-0682F48E20C3}"/>
-    <hyperlink ref="I94" r:id="rId90" xr:uid="{F59F71EE-F668-4350-AA66-D1A3E2451B82}"/>
-    <hyperlink ref="J31" r:id="rId91" xr:uid="{265B9BFA-0F8A-452C-A93F-8816F6B7D8D1}"/>
-    <hyperlink ref="I95" r:id="rId92" xr:uid="{179029C0-9730-459E-BDE6-818BF421F397}"/>
-    <hyperlink ref="I96" r:id="rId93" xr:uid="{ECFF4EC8-9C10-485E-A2EE-A7C2EA0205D7}"/>
-    <hyperlink ref="J35" r:id="rId94" xr:uid="{160E408E-1D98-45F3-9077-47F847787176}"/>
-    <hyperlink ref="I97" r:id="rId95" xr:uid="{8ED85618-5D65-4CD4-BA9A-3B9F05849B74}"/>
-    <hyperlink ref="J39" r:id="rId96" xr:uid="{2F2F9107-677A-48D3-9C78-052E9BE7E164}"/>
-    <hyperlink ref="J40" r:id="rId97" xr:uid="{0A2811DB-20A1-4E88-97BC-037A34E605B4}"/>
-    <hyperlink ref="I100" r:id="rId98" xr:uid="{C73F8701-9F06-4E72-9C5B-172CCB5F2435}"/>
-    <hyperlink ref="I101" r:id="rId99" xr:uid="{81CCD3E4-D865-4DDE-A88B-42617BB152B9}"/>
-    <hyperlink ref="I99" r:id="rId100" xr:uid="{F9E54FEA-83FF-4751-A24B-18105E523829}"/>
-    <hyperlink ref="I98" r:id="rId101" xr:uid="{59654460-C99D-4EBA-B66E-689218D58E96}"/>
-    <hyperlink ref="J69" r:id="rId102" xr:uid="{5CF04245-71BC-40D0-9D1C-5AB09588575E}"/>
-    <hyperlink ref="J76" r:id="rId103" xr:uid="{5B891B12-C6F4-449B-8B12-E0F143386FFF}"/>
-    <hyperlink ref="J82" r:id="rId104" xr:uid="{77C81E2E-0C64-4B4B-938F-EB62FA68169C}"/>
-    <hyperlink ref="J87" r:id="rId105" xr:uid="{1B5D60A4-68C2-4BD8-9B33-E0AC54A7187B}"/>
-    <hyperlink ref="J62" r:id="rId106" xr:uid="{0E5E6DC9-DA84-45F6-9525-C9ABFBAA8F8F}"/>
-    <hyperlink ref="J60" r:id="rId107" xr:uid="{0511204C-972C-41E0-BDC7-331C92052FDB}"/>
-    <hyperlink ref="J47" r:id="rId108" xr:uid="{8CADEAE8-936E-4241-8E5B-4CA4C807898F}"/>
-    <hyperlink ref="J53" r:id="rId109" xr:uid="{06F8885A-8967-479B-8147-84B3B72D6673}"/>
-    <hyperlink ref="J96" r:id="rId110" xr:uid="{F881A021-05A5-4952-A1F4-10B46969DB07}"/>
+    <hyperlink ref="J29" r:id="rId82" xr:uid="{681D671E-446D-464D-8999-FA3B18DBA3A7}"/>
+    <hyperlink ref="I88" r:id="rId83" display="EP_080.mp4" xr:uid="{63F11F14-2B9F-46E3-B51C-AFF658807762}"/>
+    <hyperlink ref="I89" r:id="rId84" display="EP_081.mp4" xr:uid="{814B3263-418A-451F-BAA2-B124CF925B41}"/>
+    <hyperlink ref="I90" r:id="rId85" display="EP_082.mp4" xr:uid="{659BA1C4-6F34-4596-BC18-314CA7C3BCDB}"/>
+    <hyperlink ref="I91" r:id="rId86" display="EP_083.mp4" xr:uid="{0C546A65-897F-4B3C-8594-5E255E676994}"/>
+    <hyperlink ref="I92" r:id="rId87" display="EP_084.mp4" xr:uid="{FFCD8A75-066E-4591-829C-F81BA9C4DAE2}"/>
+    <hyperlink ref="I93" r:id="rId88" display="EP_085.mp4" xr:uid="{890C34FA-2F60-46DB-81F8-0682F48E20C3}"/>
+    <hyperlink ref="I94" r:id="rId89" display="EP_086.mp4" xr:uid="{F59F71EE-F668-4350-AA66-D1A3E2451B82}"/>
+    <hyperlink ref="J31" r:id="rId90" xr:uid="{265B9BFA-0F8A-452C-A93F-8816F6B7D8D1}"/>
+    <hyperlink ref="I95" r:id="rId91" display="EP_087.mp4" xr:uid="{179029C0-9730-459E-BDE6-818BF421F397}"/>
+    <hyperlink ref="I96" r:id="rId92" display="EP_088.mp4" xr:uid="{ECFF4EC8-9C10-485E-A2EE-A7C2EA0205D7}"/>
+    <hyperlink ref="J35" r:id="rId93" xr:uid="{160E408E-1D98-45F3-9077-47F847787176}"/>
+    <hyperlink ref="I97" r:id="rId94" display="EP_089.mp4" xr:uid="{8ED85618-5D65-4CD4-BA9A-3B9F05849B74}"/>
+    <hyperlink ref="J39" r:id="rId95" xr:uid="{2F2F9107-677A-48D3-9C78-052E9BE7E164}"/>
+    <hyperlink ref="J40" r:id="rId96" xr:uid="{0A2811DB-20A1-4E88-97BC-037A34E605B4}"/>
+    <hyperlink ref="I100" r:id="rId97" display="EP_92_93.mp4" xr:uid="{C73F8701-9F06-4E72-9C5B-172CCB5F2435}"/>
+    <hyperlink ref="I101" r:id="rId98" display="EP_92_93.mp4" xr:uid="{81CCD3E4-D865-4DDE-A88B-42617BB152B9}"/>
+    <hyperlink ref="I99" r:id="rId99" display="EP_091.mp4" xr:uid="{F9E54FEA-83FF-4751-A24B-18105E523829}"/>
+    <hyperlink ref="I98" r:id="rId100" display="EP_090.mp4" xr:uid="{59654460-C99D-4EBA-B66E-689218D58E96}"/>
+    <hyperlink ref="J69" r:id="rId101" xr:uid="{5CF04245-71BC-40D0-9D1C-5AB09588575E}"/>
+    <hyperlink ref="J76" r:id="rId102" xr:uid="{5B891B12-C6F4-449B-8B12-E0F143386FFF}"/>
+    <hyperlink ref="J82" r:id="rId103" xr:uid="{77C81E2E-0C64-4B4B-938F-EB62FA68169C}"/>
+    <hyperlink ref="J87" r:id="rId104" xr:uid="{1B5D60A4-68C2-4BD8-9B33-E0AC54A7187B}"/>
+    <hyperlink ref="J47" r:id="rId105" xr:uid="{8CADEAE8-936E-4241-8E5B-4CA4C807898F}"/>
+    <hyperlink ref="J53" r:id="rId106" xr:uid="{06F8885A-8967-479B-8147-84B3B72D6673}"/>
+    <hyperlink ref="J96" r:id="rId107" xr:uid="{F881A021-05A5-4952-A1F4-10B46969DB07}"/>
+    <hyperlink ref="J28" r:id="rId108" display="https://github.com/miso-alejosaur/ghost-issues/issues/5" xr:uid="{CF8C4FCF-92AA-4B21-A281-5955EABA3D9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId111"/>
+  <drawing r:id="rId109"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -4505,13 +4439,13 @@
           <x14:formula1>
             <xm:f>Lists!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G10:G101</xm:sqref>
+          <xm:sqref>G10:G104</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F10:F101</xm:sqref>
+          <xm:sqref>F10:F104</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4535,33 +4469,33 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/inventario-pruebas-exploratorias.xlsx
+++ b/inventario-pruebas-exploratorias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MiSo\pruebas-automatizadas-software\semana8\testing-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\Repo uniandes\testing-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA005AF-2842-464B-B085-0946983404FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios PE" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$105</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="251">
   <si>
     <t>PRUEBAS EXPLORATORIAS</t>
   </si>
@@ -789,11 +788,23 @@
   <si>
     <t>https://github.com/miso-alejosaur/testing-final/issues/15</t>
   </si>
+  <si>
+    <t>EP_094</t>
+  </si>
+  <si>
+    <t>Agregar post con titulo de mas 500 caracteres</t>
+  </si>
+  <si>
+    <t>https://github.com/miso-alejosaur/testing-final/issues/19</t>
+  </si>
+  <si>
+    <t>EP-094</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -860,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -996,13 +1007,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1072,6 +1094,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,25 +1130,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1444,11 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="68" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1478,17 +1515,17 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -1505,46 +1542,46 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="2:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1558,17 +1595,17 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -2697,7 +2734,7 @@
       <c r="I47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="29" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2871,7 +2908,7 @@
       <c r="I53" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J53" s="36" t="s">
+      <c r="J53" s="29" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3331,7 +3368,7 @@
       <c r="I69" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="J69" s="35" t="s">
+      <c r="J69" s="28" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3534,7 +3571,7 @@
       <c r="I76" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="J76" s="35" t="s">
+      <c r="J76" s="28" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3708,7 +3745,7 @@
       <c r="I82" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="J82" s="35" t="s">
+      <c r="J82" s="28" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3853,7 +3890,7 @@
       <c r="I87" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J87" s="35" t="s">
+      <c r="J87" s="28" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4235,79 +4272,97 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="37">
         <v>44654</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="F101" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="J101" s="13" t="s">
+      <c r="J101" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="32"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="32"/>
+      <c r="B102" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44710</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I102" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="32"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="25"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="32"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="25"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4320,128 +4375,130 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I42" r:id="rId1" display="EP_034.mp4" xr:uid="{BD006CBD-3051-4C9E-A6A1-E3BA8C9FF184}"/>
-    <hyperlink ref="I41" r:id="rId2" display="EP_033.mp4" xr:uid="{7869AAE2-C25E-4DA8-A2B4-FFA99BAF2CA6}"/>
-    <hyperlink ref="I62" r:id="rId3" display="EP_054.mp4" xr:uid="{0EACAE09-F118-4BC9-B821-BF8E86260AFB}"/>
-    <hyperlink ref="I61" r:id="rId4" display="EP_053.mp4" xr:uid="{10367184-DFCA-465C-A3F6-B18EC84BB0A3}"/>
-    <hyperlink ref="I60" r:id="rId5" display="EP_052.mp4" xr:uid="{A9EC25A8-2E2C-4303-9C9F-ED77B0AE8EE7}"/>
-    <hyperlink ref="I59" r:id="rId6" display="EP_051.mp4" xr:uid="{4FD051B7-30CC-4FB5-BCAE-792D94CBF924}"/>
-    <hyperlink ref="I58" r:id="rId7" display="EP_050.mp4" xr:uid="{3B983B14-F72C-4574-ABFF-05283A9A1AA0}"/>
-    <hyperlink ref="I57" r:id="rId8" display="EP_049.mp4" xr:uid="{5B02CFF1-E9C7-4DBF-B3FF-1309CAA272B3}"/>
-    <hyperlink ref="I56" r:id="rId9" display="EP_048.mp4" xr:uid="{B9279369-94CC-480D-84C3-90929EAE10CC}"/>
-    <hyperlink ref="I55" r:id="rId10" display="EP_047.mp4" xr:uid="{CBBF8DC5-99FD-4656-B1A5-4BEE5D12B07D}"/>
-    <hyperlink ref="I54" r:id="rId11" display="EP_046.mp4" xr:uid="{B45D440C-285C-4F69-A331-9916AD023A8B}"/>
-    <hyperlink ref="I53" r:id="rId12" display="EP_045.mp4" xr:uid="{5496930A-1570-4EAE-BC7C-2003C15B3B51}"/>
-    <hyperlink ref="I52" r:id="rId13" display="EP_044.mp4" xr:uid="{753145DF-1F2D-46D1-8545-785270C3FC0B}"/>
-    <hyperlink ref="I51" r:id="rId14" display="EP_043.mp4" xr:uid="{0BFFFE9A-7EA8-4269-A115-47C8417531BF}"/>
-    <hyperlink ref="I50" r:id="rId15" display="EP_042.mp4" xr:uid="{05941E83-0F40-4A83-8C2E-169949B1C4DF}"/>
-    <hyperlink ref="I49" r:id="rId16" display="EP_041.mp4" xr:uid="{3F9362EB-2601-4735-AC12-C326EEDE3B03}"/>
-    <hyperlink ref="I48" r:id="rId17" display="EP_040.mp4" xr:uid="{590CE74B-1B93-4AFA-8E36-83496267E7BC}"/>
-    <hyperlink ref="I47" r:id="rId18" display="EP_039.mp4" xr:uid="{9E22DABA-EAAF-405F-B2C4-06509D2AEB15}"/>
-    <hyperlink ref="I46" r:id="rId19" display="EP_038.mp4" xr:uid="{A132C98D-73A0-464F-B758-91F75553EFCE}"/>
-    <hyperlink ref="I45" r:id="rId20" display="EP_037.mp4" xr:uid="{C5DEBA5A-524C-44BA-8CD5-DF8D5C53D3F5}"/>
-    <hyperlink ref="I44" r:id="rId21" display="EP_036.mp4" xr:uid="{46D92058-1DD3-40DC-94CA-17318FF88B8C}"/>
-    <hyperlink ref="I43" r:id="rId22" display="EP_035.mp4" xr:uid="{88BDCB1B-CAB9-4679-8219-31DEDC5A4897}"/>
-    <hyperlink ref="I10" r:id="rId23" xr:uid="{B241C71D-EDCC-465D-A1D3-9C96130EDFC3}"/>
-    <hyperlink ref="I11" r:id="rId24" xr:uid="{7C5DE2E7-7570-4B69-9BCC-55BF06C3AE27}"/>
-    <hyperlink ref="I12" r:id="rId25" xr:uid="{DF5F6D78-E99D-4861-87B8-0AC7DF71F669}"/>
-    <hyperlink ref="I13" r:id="rId26" xr:uid="{60A843EF-08CA-4021-BCC8-57823DD67F90}"/>
-    <hyperlink ref="I14" r:id="rId27" xr:uid="{2745FEA2-AE82-405C-B679-11EAD7CBBE97}"/>
-    <hyperlink ref="I20" r:id="rId28" xr:uid="{47C3BF18-C2A7-4935-8F0A-70FFD1DA0966}"/>
-    <hyperlink ref="I21" r:id="rId29" xr:uid="{FB8E1229-EDB5-4ECC-89A2-F8A83DF63DBB}"/>
-    <hyperlink ref="I22" r:id="rId30" xr:uid="{47A32957-9D26-49C5-9EE7-52429DF99D77}"/>
-    <hyperlink ref="I23" r:id="rId31" xr:uid="{EFB63573-BE77-4797-BEBA-59D3C3E963C1}"/>
-    <hyperlink ref="I24" r:id="rId32" xr:uid="{17BB674A-A7DF-49B2-9673-B25DEF2FA1AA}"/>
-    <hyperlink ref="I25" r:id="rId33" xr:uid="{7C07F9FF-B7A1-4A65-AEAF-3B69FBDE2819}"/>
-    <hyperlink ref="I26" r:id="rId34" xr:uid="{0E1EC960-B065-4FC2-938B-99D6C7457A0F}"/>
-    <hyperlink ref="I27" r:id="rId35" xr:uid="{53152DF9-4A09-486B-82B6-A3CD74296F54}"/>
-    <hyperlink ref="I28" r:id="rId36" xr:uid="{813ADF51-93DC-4FD5-B183-24CACB47FCE5}"/>
-    <hyperlink ref="I29" r:id="rId37" xr:uid="{1F4C1340-C5D7-48F2-BA1F-B39D8AB5FBB5}"/>
-    <hyperlink ref="I30" r:id="rId38" xr:uid="{7B114A2D-D739-4724-85E4-CC4F0DDD8C15}"/>
-    <hyperlink ref="I31" r:id="rId39" xr:uid="{24720C41-D9E5-4337-A371-764E7F0EECD4}"/>
-    <hyperlink ref="I32" r:id="rId40" xr:uid="{511246D2-F593-4FC7-BA05-AD10B59665B5}"/>
-    <hyperlink ref="I33" r:id="rId41" xr:uid="{5F12798F-2AC1-4CFD-85E5-85A5E9E6AAE1}"/>
-    <hyperlink ref="I34" r:id="rId42" xr:uid="{DE7B3C12-1EBD-40AB-BBB6-318F628AEB84}"/>
-    <hyperlink ref="I35" r:id="rId43" xr:uid="{F7D5734B-23CE-4DFE-BD1B-53D36E950D8E}"/>
-    <hyperlink ref="I36" r:id="rId44" xr:uid="{DA93B2AC-2426-4698-9032-314B6F499B09}"/>
-    <hyperlink ref="I37" r:id="rId45" xr:uid="{691264AA-4FF9-4E10-94A2-E5C81D950FF2}"/>
-    <hyperlink ref="J21" r:id="rId46" display="https://github.com/miso-alejosaur/ghost-issues/issues/2" xr:uid="{0DBBCE35-12BF-4343-841D-3ED5778B169A}"/>
-    <hyperlink ref="I38" r:id="rId47" xr:uid="{8A05C85C-916D-44F8-BF81-D91D1C6E25E3}"/>
-    <hyperlink ref="I39" r:id="rId48" xr:uid="{EC7B0189-A85F-47BE-924B-F19DE5EC6E79}"/>
-    <hyperlink ref="I40" r:id="rId49" xr:uid="{83AECA04-D9E6-4CCB-B5F1-288B1B4C0FB0}"/>
-    <hyperlink ref="I63" r:id="rId50" xr:uid="{54B567AC-3FAC-42AE-9B5A-528A63BFD789}"/>
-    <hyperlink ref="I64" r:id="rId51" xr:uid="{4535D896-A154-4049-B500-0F9CF4201E22}"/>
-    <hyperlink ref="I65" r:id="rId52" xr:uid="{089F6262-034B-47C4-9862-6CF29907D13A}"/>
-    <hyperlink ref="I66" r:id="rId53" xr:uid="{8DE03B67-63E0-413A-8705-DDFB2E5927AA}"/>
-    <hyperlink ref="I67" r:id="rId54" xr:uid="{30710507-0BF2-47BD-B8C4-202BB4C0CCBB}"/>
-    <hyperlink ref="I68" r:id="rId55" xr:uid="{944F6647-B1D1-4658-9C8E-E7662376DCCC}"/>
-    <hyperlink ref="I69" r:id="rId56" xr:uid="{4968664F-8702-4FD0-80E8-AC468FBFA41E}"/>
-    <hyperlink ref="I70" r:id="rId57" xr:uid="{AAAFBC19-848F-401A-9789-4F31EDE53F9D}"/>
-    <hyperlink ref="I71" r:id="rId58" xr:uid="{525877FF-75FE-4CC8-AB14-D30E0710B962}"/>
-    <hyperlink ref="I72" r:id="rId59" xr:uid="{DC52F67B-6019-4471-8DB3-4F57B482243A}"/>
-    <hyperlink ref="I73" r:id="rId60" xr:uid="{DB9492C1-2E9A-450C-8D32-2D14093B5720}"/>
-    <hyperlink ref="I74" r:id="rId61" xr:uid="{3C0162C0-17E1-48B0-9046-A8C00E2D2A71}"/>
-    <hyperlink ref="I75" r:id="rId62" xr:uid="{40EE9614-F318-4428-B079-0F959D3CE7D6}"/>
-    <hyperlink ref="I76" r:id="rId63" xr:uid="{EC12D40F-708D-4C2B-A86A-F21A3D749F3C}"/>
-    <hyperlink ref="I77" r:id="rId64" xr:uid="{A9603C86-3C79-4546-A682-808712ACB6ED}"/>
-    <hyperlink ref="I78" r:id="rId65" xr:uid="{A75A2336-3CFA-4AE0-BECD-0AE530B1479C}"/>
-    <hyperlink ref="I79" r:id="rId66" xr:uid="{9E920055-40BF-4401-8A7F-D5C765F419DD}"/>
-    <hyperlink ref="I80" r:id="rId67" xr:uid="{F7374F46-C9DD-48BE-AE3D-EC7CF6F2DA4E}"/>
-    <hyperlink ref="I81" r:id="rId68" xr:uid="{FB543AD0-3249-486A-A984-94F2A9DBF9CE}"/>
-    <hyperlink ref="I82" r:id="rId69" xr:uid="{2A97B98B-4367-417F-8061-5E91F0212E8A}"/>
-    <hyperlink ref="I83" r:id="rId70" xr:uid="{FB81E340-F250-4F7C-B7EE-A1C8811E4514}"/>
-    <hyperlink ref="I84" r:id="rId71" xr:uid="{0BFC4D9C-A352-439F-87E0-8F6208FEEAE4}"/>
-    <hyperlink ref="I85" r:id="rId72" xr:uid="{6138D190-368B-48F4-83E3-C02BBE25600B}"/>
-    <hyperlink ref="I86" r:id="rId73" xr:uid="{ED37F369-A078-4093-A364-B1FB984A8377}"/>
-    <hyperlink ref="I87" r:id="rId74" xr:uid="{7C407393-3E98-45C0-A1D3-AE22918BB681}"/>
-    <hyperlink ref="J26" r:id="rId75" xr:uid="{E223F931-D362-46DF-9192-CCC41FD59746}"/>
-    <hyperlink ref="I17" r:id="rId76" xr:uid="{F8B47E10-D266-4A91-8D08-F863486313AA}"/>
-    <hyperlink ref="I19" r:id="rId77" xr:uid="{2D9AB2D5-8052-4204-9EEB-336661222C6A}"/>
-    <hyperlink ref="I18" r:id="rId78" xr:uid="{BDA72987-F42F-4CE2-8C19-095F4CDAAA54}"/>
-    <hyperlink ref="I16" r:id="rId79" xr:uid="{5883711D-D1BB-4D2C-A9CA-CEC542263872}"/>
-    <hyperlink ref="I15" r:id="rId80" xr:uid="{AB609A9E-2762-4574-82A6-4E5C394BA2D7}"/>
-    <hyperlink ref="J27" r:id="rId81" xr:uid="{1ABCE5C7-2196-4D6E-88D9-3E6290EB9507}"/>
-    <hyperlink ref="J29" r:id="rId82" xr:uid="{681D671E-446D-464D-8999-FA3B18DBA3A7}"/>
-    <hyperlink ref="I88" r:id="rId83" display="EP_080.mp4" xr:uid="{63F11F14-2B9F-46E3-B51C-AFF658807762}"/>
-    <hyperlink ref="I89" r:id="rId84" display="EP_081.mp4" xr:uid="{814B3263-418A-451F-BAA2-B124CF925B41}"/>
-    <hyperlink ref="I90" r:id="rId85" display="EP_082.mp4" xr:uid="{659BA1C4-6F34-4596-BC18-314CA7C3BCDB}"/>
-    <hyperlink ref="I91" r:id="rId86" display="EP_083.mp4" xr:uid="{0C546A65-897F-4B3C-8594-5E255E676994}"/>
-    <hyperlink ref="I92" r:id="rId87" display="EP_084.mp4" xr:uid="{FFCD8A75-066E-4591-829C-F81BA9C4DAE2}"/>
-    <hyperlink ref="I93" r:id="rId88" display="EP_085.mp4" xr:uid="{890C34FA-2F60-46DB-81F8-0682F48E20C3}"/>
-    <hyperlink ref="I94" r:id="rId89" display="EP_086.mp4" xr:uid="{F59F71EE-F668-4350-AA66-D1A3E2451B82}"/>
-    <hyperlink ref="J31" r:id="rId90" xr:uid="{265B9BFA-0F8A-452C-A93F-8816F6B7D8D1}"/>
-    <hyperlink ref="I95" r:id="rId91" display="EP_087.mp4" xr:uid="{179029C0-9730-459E-BDE6-818BF421F397}"/>
-    <hyperlink ref="I96" r:id="rId92" display="EP_088.mp4" xr:uid="{ECFF4EC8-9C10-485E-A2EE-A7C2EA0205D7}"/>
-    <hyperlink ref="J35" r:id="rId93" xr:uid="{160E408E-1D98-45F3-9077-47F847787176}"/>
-    <hyperlink ref="I97" r:id="rId94" display="EP_089.mp4" xr:uid="{8ED85618-5D65-4CD4-BA9A-3B9F05849B74}"/>
-    <hyperlink ref="J39" r:id="rId95" xr:uid="{2F2F9107-677A-48D3-9C78-052E9BE7E164}"/>
-    <hyperlink ref="J40" r:id="rId96" xr:uid="{0A2811DB-20A1-4E88-97BC-037A34E605B4}"/>
-    <hyperlink ref="I100" r:id="rId97" display="EP_92_93.mp4" xr:uid="{C73F8701-9F06-4E72-9C5B-172CCB5F2435}"/>
-    <hyperlink ref="I101" r:id="rId98" display="EP_92_93.mp4" xr:uid="{81CCD3E4-D865-4DDE-A88B-42617BB152B9}"/>
-    <hyperlink ref="I99" r:id="rId99" display="EP_091.mp4" xr:uid="{F9E54FEA-83FF-4751-A24B-18105E523829}"/>
-    <hyperlink ref="I98" r:id="rId100" display="EP_090.mp4" xr:uid="{59654460-C99D-4EBA-B66E-689218D58E96}"/>
-    <hyperlink ref="J69" r:id="rId101" xr:uid="{5CF04245-71BC-40D0-9D1C-5AB09588575E}"/>
-    <hyperlink ref="J76" r:id="rId102" xr:uid="{5B891B12-C6F4-449B-8B12-E0F143386FFF}"/>
-    <hyperlink ref="J82" r:id="rId103" xr:uid="{77C81E2E-0C64-4B4B-938F-EB62FA68169C}"/>
-    <hyperlink ref="J87" r:id="rId104" xr:uid="{1B5D60A4-68C2-4BD8-9B33-E0AC54A7187B}"/>
-    <hyperlink ref="J47" r:id="rId105" xr:uid="{8CADEAE8-936E-4241-8E5B-4CA4C807898F}"/>
-    <hyperlink ref="J53" r:id="rId106" xr:uid="{06F8885A-8967-479B-8147-84B3B72D6673}"/>
-    <hyperlink ref="J96" r:id="rId107" xr:uid="{F881A021-05A5-4952-A1F4-10B46969DB07}"/>
-    <hyperlink ref="J28" r:id="rId108" display="https://github.com/miso-alejosaur/ghost-issues/issues/5" xr:uid="{CF8C4FCF-92AA-4B21-A281-5955EABA3D9F}"/>
+    <hyperlink ref="I42" r:id="rId1" display="EP_034.mp4"/>
+    <hyperlink ref="I41" r:id="rId2" display="EP_033.mp4"/>
+    <hyperlink ref="I62" r:id="rId3" display="EP_054.mp4"/>
+    <hyperlink ref="I61" r:id="rId4" display="EP_053.mp4"/>
+    <hyperlink ref="I60" r:id="rId5" display="EP_052.mp4"/>
+    <hyperlink ref="I59" r:id="rId6" display="EP_051.mp4"/>
+    <hyperlink ref="I58" r:id="rId7" display="EP_050.mp4"/>
+    <hyperlink ref="I57" r:id="rId8" display="EP_049.mp4"/>
+    <hyperlink ref="I56" r:id="rId9" display="EP_048.mp4"/>
+    <hyperlink ref="I55" r:id="rId10" display="EP_047.mp4"/>
+    <hyperlink ref="I54" r:id="rId11" display="EP_046.mp4"/>
+    <hyperlink ref="I53" r:id="rId12" display="EP_045.mp4"/>
+    <hyperlink ref="I52" r:id="rId13" display="EP_044.mp4"/>
+    <hyperlink ref="I51" r:id="rId14" display="EP_043.mp4"/>
+    <hyperlink ref="I50" r:id="rId15" display="EP_042.mp4"/>
+    <hyperlink ref="I49" r:id="rId16" display="EP_041.mp4"/>
+    <hyperlink ref="I48" r:id="rId17" display="EP_040.mp4"/>
+    <hyperlink ref="I47" r:id="rId18" display="EP_039.mp4"/>
+    <hyperlink ref="I46" r:id="rId19" display="EP_038.mp4"/>
+    <hyperlink ref="I45" r:id="rId20" display="EP_037.mp4"/>
+    <hyperlink ref="I44" r:id="rId21" display="EP_036.mp4"/>
+    <hyperlink ref="I43" r:id="rId22" display="EP_035.mp4"/>
+    <hyperlink ref="I10" r:id="rId23"/>
+    <hyperlink ref="I11" r:id="rId24"/>
+    <hyperlink ref="I12" r:id="rId25"/>
+    <hyperlink ref="I13" r:id="rId26"/>
+    <hyperlink ref="I14" r:id="rId27"/>
+    <hyperlink ref="I20" r:id="rId28"/>
+    <hyperlink ref="I21" r:id="rId29"/>
+    <hyperlink ref="I22" r:id="rId30"/>
+    <hyperlink ref="I23" r:id="rId31"/>
+    <hyperlink ref="I24" r:id="rId32"/>
+    <hyperlink ref="I25" r:id="rId33"/>
+    <hyperlink ref="I26" r:id="rId34"/>
+    <hyperlink ref="I27" r:id="rId35"/>
+    <hyperlink ref="I28" r:id="rId36"/>
+    <hyperlink ref="I29" r:id="rId37"/>
+    <hyperlink ref="I30" r:id="rId38"/>
+    <hyperlink ref="I31" r:id="rId39"/>
+    <hyperlink ref="I32" r:id="rId40"/>
+    <hyperlink ref="I33" r:id="rId41"/>
+    <hyperlink ref="I34" r:id="rId42"/>
+    <hyperlink ref="I35" r:id="rId43"/>
+    <hyperlink ref="I36" r:id="rId44"/>
+    <hyperlink ref="I37" r:id="rId45"/>
+    <hyperlink ref="J21" r:id="rId46" display="https://github.com/miso-alejosaur/ghost-issues/issues/2"/>
+    <hyperlink ref="I38" r:id="rId47"/>
+    <hyperlink ref="I39" r:id="rId48"/>
+    <hyperlink ref="I40" r:id="rId49"/>
+    <hyperlink ref="I63" r:id="rId50"/>
+    <hyperlink ref="I64" r:id="rId51"/>
+    <hyperlink ref="I65" r:id="rId52"/>
+    <hyperlink ref="I66" r:id="rId53"/>
+    <hyperlink ref="I67" r:id="rId54"/>
+    <hyperlink ref="I68" r:id="rId55"/>
+    <hyperlink ref="I69" r:id="rId56"/>
+    <hyperlink ref="I70" r:id="rId57"/>
+    <hyperlink ref="I71" r:id="rId58"/>
+    <hyperlink ref="I72" r:id="rId59"/>
+    <hyperlink ref="I73" r:id="rId60"/>
+    <hyperlink ref="I74" r:id="rId61"/>
+    <hyperlink ref="I75" r:id="rId62"/>
+    <hyperlink ref="I76" r:id="rId63"/>
+    <hyperlink ref="I77" r:id="rId64"/>
+    <hyperlink ref="I78" r:id="rId65"/>
+    <hyperlink ref="I79" r:id="rId66"/>
+    <hyperlink ref="I80" r:id="rId67"/>
+    <hyperlink ref="I81" r:id="rId68"/>
+    <hyperlink ref="I82" r:id="rId69"/>
+    <hyperlink ref="I83" r:id="rId70"/>
+    <hyperlink ref="I84" r:id="rId71"/>
+    <hyperlink ref="I85" r:id="rId72"/>
+    <hyperlink ref="I86" r:id="rId73"/>
+    <hyperlink ref="I87" r:id="rId74"/>
+    <hyperlink ref="J26" r:id="rId75"/>
+    <hyperlink ref="I17" r:id="rId76"/>
+    <hyperlink ref="I19" r:id="rId77"/>
+    <hyperlink ref="I18" r:id="rId78"/>
+    <hyperlink ref="I16" r:id="rId79"/>
+    <hyperlink ref="I15" r:id="rId80"/>
+    <hyperlink ref="J27" r:id="rId81"/>
+    <hyperlink ref="J29" r:id="rId82"/>
+    <hyperlink ref="I88" r:id="rId83" display="EP_080.mp4"/>
+    <hyperlink ref="I89" r:id="rId84" display="EP_081.mp4"/>
+    <hyperlink ref="I90" r:id="rId85" display="EP_082.mp4"/>
+    <hyperlink ref="I91" r:id="rId86" display="EP_083.mp4"/>
+    <hyperlink ref="I92" r:id="rId87" display="EP_084.mp4"/>
+    <hyperlink ref="I93" r:id="rId88" display="EP_085.mp4"/>
+    <hyperlink ref="I94" r:id="rId89" display="EP_086.mp4"/>
+    <hyperlink ref="J31" r:id="rId90"/>
+    <hyperlink ref="I95" r:id="rId91" display="EP_087.mp4"/>
+    <hyperlink ref="I96" r:id="rId92" display="EP_088.mp4"/>
+    <hyperlink ref="J35" r:id="rId93"/>
+    <hyperlink ref="I97" r:id="rId94" display="EP_089.mp4"/>
+    <hyperlink ref="J39" r:id="rId95"/>
+    <hyperlink ref="J40" r:id="rId96"/>
+    <hyperlink ref="I100" r:id="rId97" display="EP_92_93.mp4"/>
+    <hyperlink ref="I101" r:id="rId98" display="EP_92_93.mp4"/>
+    <hyperlink ref="I99" r:id="rId99" display="EP_091.mp4"/>
+    <hyperlink ref="I98" r:id="rId100" display="EP_090.mp4"/>
+    <hyperlink ref="J69" r:id="rId101"/>
+    <hyperlink ref="J76" r:id="rId102"/>
+    <hyperlink ref="J82" r:id="rId103"/>
+    <hyperlink ref="J87" r:id="rId104"/>
+    <hyperlink ref="J47" r:id="rId105"/>
+    <hyperlink ref="J53" r:id="rId106"/>
+    <hyperlink ref="J96" r:id="rId107"/>
+    <hyperlink ref="J28" r:id="rId108" display="https://github.com/miso-alejosaur/ghost-issues/issues/5"/>
+    <hyperlink ref="J102" r:id="rId109"/>
+    <hyperlink ref="I102" r:id="rId110" display="https://uniandes-my.sharepoint.com/:v:/r/personal/a_oviedom_uniandes_edu_co/Documents/Ghost%20-%20pruebas/EP-094.mkv?csf=1&amp;web=1&amp;e=cgwmTK"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId109"/>
+  <drawing r:id="rId111"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$B$8:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>G10:G104</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$B$4:$B$5</xm:f>
           </x14:formula1>
@@ -4454,7 +4511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
